--- a/pred_ohlcv/54_21/2019-11-18 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1028972.708599465</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1028872.708599465</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1256093.142299465</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1255993.142299465</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1444535.843099465</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1445957.501399465</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1448557.501399465</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1489469.765299465</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1496348.872999465</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1510026.290899465</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1618631.254299465</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1614489.290799465</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1614695.974699465</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1688467.379099465</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1769358.682199465</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1769258.682199465</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1778077.254799465</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1882520.178399466</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2482756.611699466</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2613935.844899465</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1247910.788744377</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8524773.866511198</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>9706589.107788112</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>11635750.53344069</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>17003599.30757743</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>16425784.61637743</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15593327.26097743</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>13372897.35648284</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12331259.94376618</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12716787.50016618</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11324204.23026618</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>11364307.91456618</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>11048107.30656618</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10596759.24696618</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10852002.15117518</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10868932.2701983</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10774133.3155983</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16887316.94030141</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>19227541.67838705</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18364915.91968705</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18783175.36938644</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18566159.37658644</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19092173.17278146</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>18979343.45168146</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>18769918.49408146</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>19063313.7385634</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>19053760.4221634</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>18843764.77036341</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>18849392.05296341</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17367251.87166341</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>16709375.33526341</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>16645799.13136341</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>16312552.75346341</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>15735667.46736341</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>15857527.93256341</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>16023949.3758634</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>15997402.4202634</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>16346928.5597634</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>17029952.3981634</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>17280997.4521634</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>17029164.1442634</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-18 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1028972.708599465</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1028872.708599465</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1030631.708599465</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1256093.142299465</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1255993.142299465</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1315994.142299465</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1429535.843099465</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1444535.843099465</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1445957.501399465</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1448557.501399465</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1489569.765299465</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1489469.765299465</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1496348.872999465</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1496148.872999465</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1510026.290899465</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1618631.254299465</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1614489.290799465</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1614389.290799465</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1688467.379099465</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1769358.682199465</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1769258.682199465</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2613935.844899465</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1247910.788744377</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>8524773.866511198</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>9706589.107788112</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>11635750.53344069</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>16898035.34927743</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>16425784.61637743</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>15593327.26097743</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>13372897.35648284</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>13628334.60722867</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>12967976.36106618</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>12563284.83856618</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>12716787.50016618</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>11324204.23026618</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>11364307.91456618</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>11225304.76296618</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>11048107.30656618</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>10377365.86906618</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10596759.24696618</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10835223.00096618</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10852002.15117518</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10868932.2701983</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>10774133.3155983</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>15424633.64632089</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>15612950.88852494</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>16988830.6552389</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>16887316.94030141</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17645731.12988746</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>19559446.8503371</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>19227541.67838705</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18364915.91968705</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18612271.45308644</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18783175.36938644</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18566159.37658644</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>19056635.79784101</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19092173.17278146</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>18979343.45168146</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>18769918.49408146</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>18777718.49408146</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>19063313.7385634</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>19053760.4221634</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>18843764.77036341</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>18849392.05296341</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17367251.87166341</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>16683380.73556341</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>16709375.33526341</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>16645799.13136341</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>16312552.75346341</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>15735667.46736341</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
